--- a/Template Lookup Table.xlsx
+++ b/Template Lookup Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Athena/GaTech Dropbox/Athena Chien/5pProtocolsPaper 2024/GithubStruc/lookup table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC365C-19A2-8B46-96F7-C6AD3A3C0C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4D03C9-623D-174A-BD3A-39CA40361AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1500" windowWidth="29400" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
     <t>notes</t>
   </si>
   <si>
-    <t>data1_freq</t>
+    <t>data1_freq.txt</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
